--- a/Results/Excel/TC10_SearchReservationMember_Result.xlsx
+++ b/Results/Excel/TC10_SearchReservationMember_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE356D8-DB88-4697-932B-9F6680407C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390904A9-2AED-4F25-8557-8DF068AF0B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -316,6 +316,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -401,6 +408,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -709,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -727,8 +737,8 @@
     <col min="10" max="10" width="8.54296875" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.90625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="137.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="13" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -792,10 +802,10 @@
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -828,10 +838,10 @@
       <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -864,10 +874,10 @@
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -900,10 +910,10 @@
       <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -936,10 +946,10 @@
       <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -974,10 +984,10 @@
       <c r="H7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -1012,10 +1022,10 @@
       <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1050,10 +1060,10 @@
       <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1088,10 +1098,10 @@
       <c r="H10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1126,10 +1136,10 @@
       <c r="H11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1164,14 +1174,14 @@
       <c r="H12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>33</v>
+      <c r="I12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>42</v>
@@ -1202,10 +1212,10 @@
       <c r="H13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -1240,14 +1250,14 @@
       <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>33</v>
+      <c r="I14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>42</v>
@@ -1278,14 +1288,14 @@
       <c r="H15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>33</v>
+      <c r="I15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>42</v>
@@ -1316,14 +1326,14 @@
       <c r="H16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>33</v>
+      <c r="I16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>42</v>
@@ -1354,14 +1364,14 @@
       <c r="H17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>33</v>
+      <c r="I17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>42</v>
@@ -1392,10 +1402,10 @@
       <c r="H18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -1430,14 +1440,14 @@
       <c r="H19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>33</v>
+      <c r="I19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>42</v>
@@ -1468,14 +1478,14 @@
       <c r="H20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>33</v>
+      <c r="I20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>42</v>
@@ -1506,14 +1516,14 @@
       <c r="H21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>33</v>
+      <c r="I21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>42</v>
@@ -1544,14 +1554,14 @@
       <c r="H22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>33</v>
+      <c r="I22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>42</v>
@@ -1582,10 +1592,10 @@
       <c r="H23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="I23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -1620,14 +1630,14 @@
       <c r="H24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>33</v>
+      <c r="I24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>42</v>
@@ -1658,14 +1668,14 @@
       <c r="H25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>33</v>
+      <c r="I25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>42</v>
@@ -1696,14 +1706,14 @@
       <c r="H26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>33</v>
+      <c r="I26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>42</v>
@@ -1734,14 +1744,14 @@
       <c r="H27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>33</v>
+      <c r="I27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>42</v>
@@ -1772,10 +1782,10 @@
       <c r="H28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K28" s="3" t="s">
@@ -1810,14 +1820,14 @@
       <c r="H29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>33</v>
+      <c r="I29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>42</v>
@@ -1848,14 +1858,14 @@
       <c r="H30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>33</v>
+      <c r="I30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>42</v>
@@ -1886,14 +1896,14 @@
       <c r="H31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>33</v>
+      <c r="I31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>42</v>
@@ -1924,14 +1934,14 @@
       <c r="H32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>33</v>
+      <c r="I32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>42</v>
@@ -1962,10 +1972,10 @@
       <c r="H33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="I33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -2000,14 +2010,14 @@
       <c r="H34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>33</v>
+      <c r="I34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>42</v>
@@ -2038,14 +2048,14 @@
       <c r="H35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>33</v>
+      <c r="I35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>42</v>
@@ -2076,14 +2086,14 @@
       <c r="H36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>33</v>
+      <c r="I36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>42</v>
@@ -2114,14 +2124,14 @@
       <c r="H37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>33</v>
+      <c r="I37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>74</v>
@@ -2152,14 +2162,14 @@
       <c r="H38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>33</v>
+      <c r="I38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>74</v>
@@ -2190,14 +2200,14 @@
       <c r="H39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>33</v>
+      <c r="I39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>74</v>
@@ -2228,14 +2238,14 @@
       <c r="H40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>33</v>
+      <c r="I40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>74</v>
@@ -2266,14 +2276,14 @@
       <c r="H41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>33</v>
+      <c r="I41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>74</v>
@@ -2304,14 +2314,14 @@
       <c r="H42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>33</v>
+      <c r="I42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>74</v>
@@ -2342,14 +2352,14 @@
       <c r="H43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>33</v>
+      <c r="I43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>74</v>
@@ -2380,14 +2390,14 @@
       <c r="H44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>33</v>
+      <c r="I44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>74</v>
@@ -2418,14 +2428,14 @@
       <c r="H45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>33</v>
+      <c r="I45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>74</v>
@@ -2456,14 +2466,14 @@
       <c r="H46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>33</v>
+      <c r="I46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>74</v>
@@ -2494,10 +2504,10 @@
       <c r="H47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="I47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K47" s="3" t="s">
@@ -2532,10 +2542,10 @@
       <c r="H48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="I48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K48" s="3" t="s">
@@ -2570,10 +2580,10 @@
       <c r="H49" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="I49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K49" s="3" t="s">

--- a/Results/Excel/TC10_SearchReservationMember_Result.xlsx
+++ b/Results/Excel/TC10_SearchReservationMember_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390904A9-2AED-4F25-8557-8DF068AF0B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EEDFD5-021F-4EAF-A0FB-8D878F75BE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="86">
   <si>
     <t>TDID</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ไม่พบข้อมูลการจองของสมาชิก"</t>
-  </si>
-  <si>
     <t>TD7</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>เลขบัตรประชาชนต้องเป็นตัวเลขอารบิก เป็นเลขบัตรประชาชนที่ถูกต้อง และห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขบัตรประชาชนต้องเป็นตัวเลขอารบิก เป็นเลขบัตรประชาชนที่ถูกต้อง และห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD12</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
   </si>
   <si>
     <t>เลขบัตรประชาชนต้องมีจำนวนตัวเลข 13 ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขบัตรประชาชนต้องมีจำนวนตัวเลข 13 ตัวเลขเท่านั้น"</t>
   </si>
   <si>
     <t>TD37</t>
@@ -719,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -987,19 +978,19 @@
       <c r="I7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>33</v>
+      <c r="J7" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -1025,19 +1016,19 @@
       <c r="I8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>33</v>
+      <c r="J8" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1063,19 +1054,19 @@
       <c r="I9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>33</v>
+      <c r="J9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -1101,19 +1092,19 @@
       <c r="I10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>33</v>
+      <c r="J10" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -1139,19 +1130,19 @@
       <c r="I11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>33</v>
+      <c r="J11" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1166,11 +1157,11 @@
         <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1184,12 +1175,12 @@
         <v>19</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1204,10 +1195,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>32</v>
@@ -1215,19 +1206,19 @@
       <c r="I13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>33</v>
+      <c r="J13" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
@@ -1242,10 +1233,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>31</v>
@@ -1260,12 +1251,12 @@
         <v>19</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -1280,10 +1271,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>31</v>
@@ -1298,12 +1289,12 @@
         <v>19</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -1318,10 +1309,10 @@
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>31</v>
@@ -1336,12 +1327,12 @@
         <v>19</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
@@ -1356,11 +1347,11 @@
         <v>22</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1374,12 +1365,12 @@
         <v>19</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
@@ -1394,10 +1385,10 @@
         <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>32</v>
@@ -1405,19 +1396,19 @@
       <c r="I18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>33</v>
+      <c r="J18" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
@@ -1432,10 +1423,10 @@
         <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>31</v>
@@ -1450,12 +1441,12 @@
         <v>19</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
@@ -1470,10 +1461,10 @@
         <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>31</v>
@@ -1488,12 +1479,12 @@
         <v>19</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>13</v>
@@ -1508,10 +1499,10 @@
         <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>31</v>
@@ -1526,12 +1517,12 @@
         <v>19</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>13</v>
@@ -1546,11 +1537,11 @@
         <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1564,12 +1555,12 @@
         <v>19</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>13</v>
@@ -1584,10 +1575,10 @@
         <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>32</v>
@@ -1595,19 +1586,19 @@
       <c r="I23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>33</v>
+      <c r="J23" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1622,10 +1613,10 @@
         <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>31</v>
@@ -1640,12 +1631,12 @@
         <v>19</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>13</v>
@@ -1660,10 +1651,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>31</v>
@@ -1678,12 +1669,12 @@
         <v>19</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -1698,10 +1689,10 @@
         <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>31</v>
@@ -1716,12 +1707,12 @@
         <v>19</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>13</v>
@@ -1736,11 +1727,11 @@
         <v>26</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1754,12 +1745,12 @@
         <v>19</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>13</v>
@@ -1774,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>32</v>
@@ -1785,19 +1776,19 @@
       <c r="I28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>33</v>
+      <c r="J28" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>13</v>
@@ -1812,10 +1803,10 @@
         <v>26</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>31</v>
@@ -1830,12 +1821,12 @@
         <v>19</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>13</v>
@@ -1850,10 +1841,10 @@
         <v>26</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>31</v>
@@ -1868,12 +1859,12 @@
         <v>19</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>13</v>
@@ -1888,10 +1879,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>31</v>
@@ -1906,12 +1897,12 @@
         <v>19</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>13</v>
@@ -1926,11 +1917,11 @@
         <v>28</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1944,12 +1935,12 @@
         <v>19</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>13</v>
@@ -1964,10 +1955,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>32</v>
@@ -1975,19 +1966,19 @@
       <c r="I33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>33</v>
+      <c r="J33" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>13</v>
@@ -2002,10 +1993,10 @@
         <v>28</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>31</v>
@@ -2020,12 +2011,12 @@
         <v>19</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>13</v>
@@ -2040,10 +2031,10 @@
         <v>28</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>31</v>
@@ -2058,12 +2049,12 @@
         <v>19</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>13</v>
@@ -2078,10 +2069,10 @@
         <v>28</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>31</v>
@@ -2096,12 +2087,12 @@
         <v>19</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>13</v>
@@ -2116,10 +2107,10 @@
         <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>31</v>
@@ -2134,12 +2125,12 @@
         <v>19</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>13</v>
@@ -2154,10 +2145,10 @@
         <v>22</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>31</v>
@@ -2172,12 +2163,12 @@
         <v>19</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>13</v>
@@ -2192,10 +2183,10 @@
         <v>24</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>31</v>
@@ -2210,12 +2201,12 @@
         <v>19</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>13</v>
@@ -2230,10 +2221,10 @@
         <v>26</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>31</v>
@@ -2248,12 +2239,12 @@
         <v>19</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>13</v>
@@ -2268,10 +2259,10 @@
         <v>28</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>31</v>
@@ -2286,12 +2277,12 @@
         <v>19</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
@@ -2306,10 +2297,10 @@
         <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>31</v>
@@ -2324,12 +2315,12 @@
         <v>19</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>13</v>
@@ -2344,10 +2335,10 @@
         <v>22</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>31</v>
@@ -2362,12 +2353,12 @@
         <v>19</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>13</v>
@@ -2382,10 +2373,10 @@
         <v>24</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>31</v>
@@ -2400,12 +2391,12 @@
         <v>19</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>13</v>
@@ -2420,10 +2411,10 @@
         <v>26</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>31</v>
@@ -2438,12 +2429,12 @@
         <v>19</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>13</v>
@@ -2458,10 +2449,10 @@
         <v>28</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>31</v>
@@ -2476,12 +2467,12 @@
         <v>19</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>13</v>
@@ -2496,7 +2487,7 @@
         <v>16</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
@@ -2519,7 +2510,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>13</v>
@@ -2534,7 +2525,7 @@
         <v>22</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>22</v>
@@ -2557,7 +2548,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>13</v>
@@ -2572,7 +2563,7 @@
         <v>26</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>26</v>

--- a/Results/Excel/TC10_SearchReservationMember_Result.xlsx
+++ b/Results/Excel/TC10_SearchReservationMember_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EEDFD5-021F-4EAF-A0FB-8D878F75BE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729D2BE-2534-4F81-80A2-318D32AA4F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="90">
   <si>
     <t>TDID</t>
   </si>
@@ -118,9 +118,6 @@
     <t>ไม่พบข้อมูลการจองของสมาชิก</t>
   </si>
   <si>
-    <t>ไม่แสดงข้อความแจ้งเตือน</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -278,6 +275,21 @@
   </si>
   <si>
     <t>TD48</t>
+  </si>
+  <si>
+    <t>bawonthad jumpatong</t>
+  </si>
+  <si>
+    <t>Expected result type</t>
+  </si>
+  <si>
+    <t>Actual result type</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ไม่พบข้อมูลการจองของสมาชิก"</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขบัตรประชาชนต้องเป็นตัวเลขอารบิก เป็นเลขบัตรประชาชนที่ถูกต้อง และห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ"</t>
   </si>
 </sst>
 </file>
@@ -319,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -402,6 +420,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -708,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -723,16 +744,18 @@
     <col min="5" max="5" width="27.08984375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="108.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="137.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="27.08984375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="41.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="137.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -755,22 +778,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -790,23 +819,25 @@
       <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2" s="11"/>
+      <c r="K2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -826,23 +857,25 @@
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="11"/>
+      <c r="K3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -862,23 +895,25 @@
       <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="11"/>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -898,23 +933,25 @@
       <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="11"/>
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -934,23 +971,25 @@
       <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="11"/>
+      <c r="K6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -972,25 +1011,25 @@
       <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -1010,25 +1049,25 @@
       <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1048,25 +1087,25 @@
       <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -1086,25 +1125,25 @@
       <c r="G10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -1124,25 +1163,25 @@
       <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1157,30 +1196,32 @@
         <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1195,30 +1236,30 @@
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
@@ -1233,30 +1274,32 @@
         <v>16</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -1271,30 +1314,32 @@
         <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -1309,30 +1354,32 @@
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
@@ -1347,30 +1394,32 @@
         <v>22</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="H17" s="11"/>
+      <c r="I17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
@@ -1385,30 +1434,30 @@
         <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
@@ -1423,30 +1472,32 @@
         <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
@@ -1461,30 +1512,32 @@
         <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>13</v>
@@ -1499,30 +1552,32 @@
         <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>13</v>
@@ -1537,30 +1592,32 @@
         <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="H22" s="11"/>
+      <c r="I22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>13</v>
@@ -1575,30 +1632,30 @@
         <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1613,30 +1670,32 @@
         <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>13</v>
@@ -1651,30 +1710,32 @@
         <v>24</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -1689,30 +1750,32 @@
         <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>13</v>
@@ -1727,30 +1790,32 @@
         <v>26</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="H27" s="11"/>
+      <c r="I27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>13</v>
@@ -1765,30 +1830,30 @@
         <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>13</v>
@@ -1803,30 +1868,32 @@
         <v>26</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>13</v>
@@ -1841,30 +1908,32 @@
         <v>26</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>13</v>
@@ -1879,30 +1948,32 @@
         <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>13</v>
@@ -1917,30 +1988,32 @@
         <v>28</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="H32" s="11"/>
+      <c r="I32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>13</v>
@@ -1955,30 +2028,30 @@
         <v>28</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>13</v>
@@ -1993,30 +2066,32 @@
         <v>28</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>13</v>
@@ -2031,30 +2106,32 @@
         <v>28</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>13</v>
@@ -2069,30 +2146,32 @@
         <v>28</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>13</v>
@@ -2107,30 +2186,32 @@
         <v>16</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>13</v>
@@ -2145,30 +2226,32 @@
         <v>22</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="H38" s="11"/>
+      <c r="I38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>13</v>
@@ -2183,30 +2266,32 @@
         <v>24</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="H39" s="11"/>
+      <c r="I39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="K39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>13</v>
@@ -2221,30 +2306,32 @@
         <v>26</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="H40" s="11"/>
+      <c r="I40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>13</v>
@@ -2259,30 +2346,32 @@
         <v>28</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="H41" s="11"/>
+      <c r="I41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
@@ -2297,30 +2386,32 @@
         <v>16</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="K42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>13</v>
@@ -2335,30 +2426,32 @@
         <v>22</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>70</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>13</v>
@@ -2373,30 +2466,32 @@
         <v>24</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>70</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>13</v>
@@ -2411,30 +2506,32 @@
         <v>26</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>70</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>13</v>
@@ -2449,30 +2546,32 @@
         <v>28</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>70</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>13</v>
@@ -2487,30 +2586,36 @@
         <v>16</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="I47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>13</v>
@@ -2525,30 +2630,36 @@
         <v>22</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="I48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>13</v>
@@ -2563,24 +2674,30 @@
         <v>26</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" s="3" t="s">
+      <c r="I49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="3" t="s">
         <v>20</v>
       </c>
     </row>
